--- a/AutoFirmwareUpgrade/CashelFirmwareAutomatedTest/TestDataFiles/CablingDataSet/2M4U3I3I.xlsx
+++ b/AutoFirmwareUpgrade/CashelFirmwareAutomatedTest/TestDataFiles/CablingDataSet/2M4U3I3I.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20325"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{02CC5C74-35C9-43A3-AC11-7249BA9F821F}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F6C28C1E-0EDA-49E9-BA27-61B3B1CBF020}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="8130" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="8130" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="DeviceInfo" sheetId="3" r:id="rId1"/>
@@ -776,7 +776,7 @@
   <dimension ref="A1:AB23"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11:B14"/>
+      <selection activeCell="E15" sqref="E15:E17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1577,7 +1577,7 @@
   <sheetPr codeName="Sheet5"/>
   <dimension ref="A1:B7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
@@ -1649,8 +1649,8 @@
   <sheetPr codeName="Sheet4"/>
   <dimension ref="A1:B41"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="B28" sqref="B28"/>
+    <sheetView tabSelected="1" topLeftCell="A20" workbookViewId="0">
+      <selection activeCell="B40" sqref="B40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1943,7 +1943,7 @@
         <v>118</v>
       </c>
       <c r="B36">
-        <v>17</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.25">
@@ -1951,7 +1951,7 @@
         <v>119</v>
       </c>
       <c r="B37">
-        <v>18</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.25">
@@ -1975,7 +1975,7 @@
         <v>122</v>
       </c>
       <c r="B40">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.25">
@@ -1997,7 +1997,7 @@
   <dimension ref="A1:D13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+      <selection activeCell="B6" sqref="B6:B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2131,7 +2131,7 @@
         <v>7</v>
       </c>
       <c r="D9">
-        <v>0</v>
+        <v>9</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
@@ -2139,7 +2139,7 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="C10">
         <v>8</v>
@@ -2153,7 +2153,7 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C11">
         <v>9</v>
@@ -2167,7 +2167,7 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>18</v>
+        <v>0</v>
       </c>
       <c r="C12">
         <v>10</v>
